--- a/va_facility_data_2025-02-20/Davenport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Davenport%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Davenport VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Davenport%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf7648c3a8c8148ddbd9636566d7eaf6a"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rdf58bed1ac204582874a85aa91bc2a3f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd72eed220c094db2baa6880568da0f2a"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R801da5542aac498595f74dfc9604a985"/>
   </x:sheets>
 </x:workbook>
 </file>
